--- a/Formato Casos de Prueba (1).lizz.xlsx
+++ b/Formato Casos de Prueba (1).lizz.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZ\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marto\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CASO DE USO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -154,11 +154,74 @@
   <si>
     <t>|</t>
   </si>
+  <si>
+    <t>Entrada de vehiculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pretende probar el formulario para guardar correctamente la informacion de entrada del vehiculo para dar una ubicación  a este </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• El operario ingresa al sistema 
+• El operario desea ingresar los datos del vehículo
+• El operario desea darle un cupo en el parqueadero al cliente
+• El sistema valida los datos ingresados 
+• El vehículo es ingresado correctamente con su cupo correspondiente   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrada de vehiculo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• El operario ingresa la placa del vehículo 
+• El operario ingresa el tipo de vehículo ( automóvil o motocicleta)
+• El operario selecciona la ubicación disponible en el parqueadero 
+• El sistema muestra el número de ubicación del vehículo
+• El operario selecciona el  botón cancelar o enviar la información para guardarla correctamente en la base de datos   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• El operario ingresa la placa del vehículo la cual es de un máximo de 6 caracteres, al ingresar más este permite subir la información a la base de datos el cual es un error que está  en proceso de corrección   
+• El operario selecciona el tipo de vehículo que en este caso es  automóvil o motocicleta al seleccionar cualquiera de los dos estos funcionan correctamente 
+• El sistema nos muestra un mapa para seleccionar el campo disponible para parquear el vehículo registrado 
+• El sistema genera correctamente el número de ubicación del vehículo
+• El botón cancelar nos da la opción de devolver la acción correctamente  y el botón enviar nos guarda correctamente los  datos en la base de datos  
+</t>
+  </si>
+  <si>
+    <t>Salida de vehiculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validar los campos que se insertan en el formulario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">se pretende probar todos los campos del formulario para verificar la correcta salida del vehiculo ingresado </t>
+  </si>
+  <si>
+    <t>• En la base de datos tiene que estar guardada la información del vehículo para darle la salida respectiva a este.</t>
+  </si>
+  <si>
+    <t>salida de vehiculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• El operario digita la placa del vehículo para darle salida
+• El operario  busca la información que registro el sistema del vehículo  
+• El sistema nos muestra la fecha de entrada 
+• El sistema nos muestra la fecha de salida 
+• El sistema nos muestra el tiempo de parqueo 
+• El sistema nos  muestra el valor total del parqueadero 
+• El operario tiene la opción de  enviar o cancelar la operación que está realizando 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• El sistema verifica que  la placa ingresada  se encuentra en la base de datos si no se encuentra registrado el muestra un mensaje de alerta indicando que la placa ingresada no está registrada 
+• El botón buscar funciona correctamente al darle clic nos despliega la información para la salida del vehículo  
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,12 +448,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -954,416 +1017,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:A29"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
@@ -1373,16 +1446,6 @@
     <mergeCell ref="E9:G29"/>
     <mergeCell ref="H9:J29"/>
     <mergeCell ref="K9:M29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1394,415 +1457,413 @@
   <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="A9:A29"/>
@@ -1810,6 +1871,18 @@
     <mergeCell ref="E9:G29"/>
     <mergeCell ref="H9:J29"/>
     <mergeCell ref="K9:M29"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1819,414 +1892,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A2:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="A9:A29"/>
@@ -2234,6 +2309,18 @@
     <mergeCell ref="E9:G29"/>
     <mergeCell ref="H9:J29"/>
     <mergeCell ref="K9:M29"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2250,404 +2337,395 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:A29"/>
-    <mergeCell ref="B9:D29"/>
-    <mergeCell ref="E9:G29"/>
-    <mergeCell ref="H9:J29"/>
-    <mergeCell ref="K9:M29"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A6:B6"/>
@@ -2658,6 +2736,15 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:A29"/>
+    <mergeCell ref="B9:D29"/>
+    <mergeCell ref="E9:G29"/>
+    <mergeCell ref="H9:J29"/>
+    <mergeCell ref="K9:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
